--- a/task.xlsx
+++ b/task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phgss\Desktop\public project\cinema-booking-react\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phgss\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82BD156-5C0B-4BE5-A987-D41C87896B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6971C0D-6D2E-40D1-B114-989B34EF27C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -123,7 +123,34 @@
     <t>20/9</t>
   </si>
   <si>
-    <t>Thiếu phần thông tin người dùng.</t>
+    <t>Admin Layout</t>
+  </si>
+  <si>
+    <t>Danh sách phim - admin</t>
+  </si>
+  <si>
+    <t>Trang thêm phim - admin</t>
+  </si>
+  <si>
+    <t>Trang edit phim - admin</t>
+  </si>
+  <si>
+    <t>Chức năng xóa phim - admin</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Quyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiếu UI đăng nhập, breadcrumb chuyển hướng giữa các components </t>
+  </si>
+  <si>
+    <t>Chưa edit được phim khi sửa đổi file hình ảnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Số điện thoại bị lỗi khi đăng kí mặc dù đã đúng với api (đã test trực tiếp bằng swagger nhưng vẫn bị)</t>
   </si>
 </sst>
 </file>
@@ -433,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -456,9 +483,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -490,9 +514,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -557,6 +578,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -800,10 +830,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J986"/>
+  <dimension ref="A1:J984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -815,7 +845,7 @@
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="7.625" customWidth="1"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="10" max="10" width="68.125" customWidth="1"/>
     <col min="11" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -855,313 +885,422 @@
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="19">
         <v>44205</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="13"/>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="15">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="13"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>43608</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>43647</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f>SUM(D5:D7)/3</f>
         <v>0.9</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="13"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>43608</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>43616</v>
       </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="13"/>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>43636</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>43644</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0.9</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="13"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>43641</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>43647</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>0.8</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="19"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>44386</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="29" t="s">
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="30" t="s">
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="13"/>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="25">
-        <v>1</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="31" t="s">
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="24">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="27" t="s">
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="13"/>
+      <c r="H11" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="39"/>
+      <c r="J11" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="27" t="s">
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="36" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44205</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44205</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44205</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="19">
+        <v>44205</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="19">
+        <v>44205</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2114,19 +2253,18 @@
     <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="I2:I12"/>
+    <mergeCell ref="E13:E17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2 D4:D14">
+  <conditionalFormatting sqref="D2 D4:D17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H14">
+  <conditionalFormatting sqref="H2:H17">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
